--- a/HT36C/XTable-A4_HT36C_B.xlsx
+++ b/HT36C/XTable-A4_HT36C_B.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PKBACK# 001/GitHub/24321-A4/HT36C/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39B632-E69A-7748-AE9E-C55AE7798BEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>NTubes</t>
   </si>
@@ -51,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -66,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -81,27 +75,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -401,44 +403,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="7.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -454,11 +458,11 @@
         <v>14.1897</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3">
@@ -474,11 +478,11 @@
         <v>23.768599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -494,11 +498,11 @@
         <v>28.801500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5">
@@ -514,11 +518,11 @@
         <v>32.5032</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C6">
@@ -534,11 +538,11 @@
         <v>35.5229</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -554,11 +558,11 @@
         <v>38.770000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -574,11 +578,11 @@
         <v>33.509799999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C9">
@@ -594,11 +598,11 @@
         <v>28.5093</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -614,11 +618,11 @@
         <v>22.4373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C11">
@@ -640,24 +644,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
